--- a/biology/Médecine/Guillaume_Bérard/Guillaume_Bérard.xlsx
+++ b/biology/Médecine/Guillaume_Bérard/Guillaume_Bérard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guillaume_B%C3%A9rard</t>
+          <t>Guillaume_Bérard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Bérard fut un médecin et diplomate français, né vers le milieu du XVIe siècle, mort en 1590/91.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guillaume_B%C3%A9rard</t>
+          <t>Guillaume_Bérard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était natif de Saorge, « en Terre-Neuve » (c'est-à-dire dans le comté de Nice, qui appartenait à l'époque aux États de Savoie). Il exerça d'abord à Nice la profession de chirurgien-barbier, puis vint habiter Marseille, d'où il s'embarqua pour l'Orient. Il se trouvait à Constantinople en 1574, quand le prétendant marocain Moulay Abd al-Malik y arriva d'Alger pour demander au sultan ottoman Sélim II d'appuyer ses droits contre son neveu Muhammad al-Mutawakkil. Ce prince ayant contracté la peste, Bérard fut appelé à son chevet, procéda à une incision des bubons et se vit attribuer la guérison qui suivit. Abd al-Malik lui en garda une grande reconnaissance, et lorsqu'il parvint à s'imposer au Maroc en 1576, il envoya auprès du roi Henri III un ambassadeur porteur d'une lettre lui demandant d'accréditer Bérard en qualité de consul de France « ès royaulmes de Marroc et de Fez ». Comme Bérard était sujet des États de Savoie, il fut d'abord naturalisé français (22 mai 1577), puis nommé « consul de la nation françoise » au Maroc (10 juin 1577), avec le même statut que les consuls français dans le Levant.
 Bérard, qui était revenu en France, s'embarqua à Marseille au début de 1578, accompagné de Vincent Le Blanc, fils d'un armateur de la ville. Leur navire fut capturé près de Gibraltar en février par les Espagnols, mais ils furent relâchés sur l'ordre du roi Philippe II. Ils débarquèrent à Larache, et le consul gagna le camp d'Abd al-Malik, qui se trouvait près de Salé. Il y parvint le 14 juillet. Le sultan, très malade, ne pouvait plus monter à cheval, mais il se dirigeait vers Ksar el-Kébir, où le 4 août son armée affronta celle du roi Sébastien de Portugal et de son allié marocain Muhammad al-Mutawakkil (Bataille des trois rois). Les trois souverains moururent sur place, mais le camp d'Abd al-Malik était vainqueur. Le consul de France accompagna la mahalla victorieuse à Fès où il assista à la beyia (intronisation) d'Ahmed al-Mansour, frère d'Abd al-Malik. En 1579, Bérard repart pour la France, chargé par le sultan d'annoncer son avènement à Henri III.
